--- a/data/SampleV.01/Elementplan_EN_SampleV.01.xlsx
+++ b/data/SampleV.01/Elementplan_EN_SampleV.01.xlsx
@@ -39,10 +39,10 @@
     <t>Pset</t>
   </si>
   <si>
-    <t>AttributDescriptionEN</t>
-  </si>
-  <si>
-    <t>AttributName</t>
+    <t>AttributeDescriptionEN</t>
+  </si>
+  <si>
+    <t>AttributeName</t>
   </si>
   <si>
     <t>Unit</t>
@@ -120,10 +120,10 @@
     <t>Void in double height rooms</t>
   </si>
   <si>
+    <t>Window</t>
+  </si>
+  <si>
     <t>Doors</t>
-  </si>
-  <si>
-    <t>Window</t>
   </si>
   <si>
     <t>IfcProject is the main container for a digital building project. It stores essential project information like: &lt;br&gt;_x005F_x000D_
@@ -176,12 +176,12 @@
     <t>IfcSpace</t>
   </si>
   <si>
+    <t>IfcWindow</t>
+  </si>
+  <si>
     <t>IfcDoor</t>
   </si>
   <si>
-    <t>IfcWindow</t>
-  </si>
-  <si>
     <t>Pset_SpaceCommon</t>
   </si>
   <si>
@@ -197,76 +197,65 @@
     <t>Unique floor designation</t>
   </si>
   <si>
-    <t>Recommendation: &lt;br&gt;_x005F_x000D_
-- Room Identifier: Persistent Unique Numerical Designation &lt;br&gt;_x005F_x000D_
-- Definition: A distinct, enduring numerical code assigned to each room for unambiguous identification within a building or complex. E.g., #007 &lt;br&gt;_x005F_x000D_
-&lt;br&gt;_x005F_x000D_
-Key Principles for Effective Data Management:_x005F_x000D_
-_x005F_x000D_
-1. Persistence: Maintain the same identifier as long as the room's core attributes remain unchanged: &lt;br&gt;_x005F_x000D_
-   - Position (not relocated to a different part of the building)_x005F_x000D_
-   - General size (minor adjustments are acceptable)_x005F_x000D_
-   - Primary function (e.g., remains an office or meeting room)_x005F_x000D_
-_x005F_x000D_
-2. Non-reuse: Retire old identifiers rather than reassigning them to new spaces:_x005F_x000D_
-   - Prevents confusion in historical data analysis_x005F_x000D_
-   - Avoids potential errors in facility management systems_x005F_x000D_
-_x005F_x000D_
-3. Consistency: Apply identifiers systematically across all building documentation and systems:_x005F_x000D_
-   - Floor plans_x005F_x000D_
-   - Building Information Models (BIM)_x005F_x000D_
-   - Facility management software_x005F_x000D_
-   - Maintenance records_x005F_x000D_
-_x005F_x000D_
-4. Format Standardization: Adopt a consistent format for all identifiers:_x005F_x000D_
-   - E.g., three-digit numbers preceded by # (#001, #002, etc.)_x005F_x000D_
-   - Consider building or floor prefixes for larger complexes (B1-#007, B2-#007)_x005F_x000D_
-_x005F_x000D_
-5. Change Management: Implement a formal process for identifier changes when necessary:_x005F_x000D_
-   - Document reasons for changes_x005F_x000D_
-   - Update all relevant systems and documentation_x005F_x000D_
-   - Maintain a change log for future reference_x005F_x000D_
-_x005F_x000D_
-6. Resist Client-Driven Changes: If clients request room numbering changes during project execution:_x005F_x000D_
-   - Explain that the current identifiers are technical room numbers crucial for data integrity_x005F_x000D_
-   - Offer to add a separate, non-technical room number attribute to accommodate their preference_x005F_x000D_
-   - Emphasize the importance of maintaining the original identifiers for system consistency and future operations_x005F_x000D_
-_x005F_x000D_
+    <t>Recommendation: \n
+- Room Identifier: Persistent Unique Numerical Designation \n
+- Definition: A distinct, enduring numerical code assigned to each room for unambiguous identification within a building or complex. E.g., #007 \n
+\n
+Key Principles for Effective Data Management:
+1. Persistence: Maintain the same identifier as long as the room's core attributes remain unchanged: \n
+   - Position (not relocated to a different part of the building)\n
+   - General size (minor adjustments are acceptable)\n
+   - Primary function (e.g., remains an office or meeting room)
+2. Non-reuse: Retire old identifiers rather than reassigning them to new spaces:
+   - Prevents confusion in historical data analysis
+   - Avoids potential errors in facility management systems
+3. Consistency: Apply identifiers systematically across all building documentation and systems:
+   - Floor plans
+   - Building Information Models (BIM)
+   - Facility management software
+   - Maintenance records
+4. Format Standardization: Adopt a consistent format for all identifiers:
+   - E.g., three-digit numbers preceded by # (#001, #002, etc.)
+   - Consider building or floor prefixes for larger complexes (B1-#007, B2-#007)
+5. Change Management: Implement a formal process for identifier changes when necessary:
+   - Document reasons for changes
+   - Update all relevant systems and documentation
+   - Maintain a change log for future reference
+6. Resist Client-Driven Changes: If clients request room numbering changes during project execution:
+   - Explain that the current identifiers are technical room numbers crucial for data integrity
+   - Offer to add a separate, non-technical room number attribute to accommodate their preference
+   - Emphasize the importance of maintaining the original identifiers for system consistency and future operations
 Remember: While it may seem tempting to reorganize or reuse identifiers, maintaining consistency over time is crucial for reliable long-term data management and analysis in facility operations. Technical room numbers should remain stable, even if additional labeling schemes are introduced for client use.</t>
   </si>
   <si>
-    <t>Room Type Naming: A Key Element in Building Information Management_x005F_x000D_
-_x005F_x000D_
-Definition: A type name for the room, e.g., Office, Meeting Room, Laboratory, Storage._x005F_x000D_
-_x005F_x000D_
-Best Practices:_x005F_x000D_
-1. Use clear, descriptive names (e.g., "Open Plan Office" instead of just "Office")_x005F_x000D_
-2. Establish a standardized list of room types for your organization_x005F_x000D_
-3. Avoid abbreviations or codes that may be unclear to some users_x005F_x000D_
-4. Consider including subtypes for more detailed classification (e.g., "Meeting Room - Large")_x005F_x000D_
-5. Regularly review and update naming conventions to ensure they meet evolving needs_x005F_x000D_
-_x005F_x000D_
+    <t>Room Type Naming: A Key Element in Building Information Management
+Definition: A type name for the room, e.g., Office, Meeting Room, Laboratory, Storage.
+Best Practices:
+1. Use clear, descriptive names (e.g., "Open Plan Office" instead of just "Office")
+2. Establish a standardized list of room types for your organization
+3. Avoid abbreviations or codes that may be unclear to some users
+4. Consider including subtypes for more detailed classification (e.g., "Meeting Room - Large")
+5. Regularly review and update naming conventions to ensure they meet evolving needs
 Remember: Consistent and thoughtful room type naming is foundational for effective building information management. It supports improved decision-making, efficiency, and long-term data usability across various aspects of facility management, energy modeling, space utilization, and regulatory compliance.</t>
   </si>
   <si>
-    <t>Recommendation:_x005F_x000D_
+    <t>In the Attribute, you can define if it's an EXTERNAL or INTERNAL Space.</t>
+  </si>
+  <si>
+    <t>The attribute defines space location:
+True: Outside (e.g., balcony)
+False: Inside (e.g., kitchen, parking garage)</t>
+  </si>
+  <si>
+    <t>Recommendation:
 - Name them consistently for simple filtering. E.g. Void</t>
   </si>
   <si>
-    <t>The attribute defines space location:_x005F_x000D_
-_x005F_x000D_
-True: Outside (e.g., balcony)_x005F_x000D_
-False: Inside (e.g., kitchen, parking garage)</t>
-  </si>
-  <si>
-    <t>In the Attribute, you can define if it's an EXTERNAL or INTERNAL Space.</t>
-  </si>
-  <si>
-    <t>Recommendation:_x005F_x000D_
+    <t>Recommendation:
 - Specify window type via PredefinedType</t>
   </si>
   <si>
-    <t>Recommendation:_x005F_x000D_
+    <t>Recommendation:
 - Specify door type via PredefinedType</t>
   </si>
   <si>
@@ -276,22 +265,22 @@
     <t>LongName</t>
   </si>
   <si>
+    <t>PredefinedType</t>
+  </si>
+  <si>
+    <t>IsInteriorOrExteriorSpace</t>
+  </si>
+  <si>
     <t>IsExternal</t>
   </si>
   <si>
-    <t>PredefinedType</t>
-  </si>
-  <si>
-    <t>IsInteriorOrExteriorSpace</t>
+    <t>EXTERNAL, INTERNAL</t>
+  </si>
+  <si>
+    <t>TRUE, FALSE</t>
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>TRUE, FALSE</t>
-  </si>
-  <si>
-    <t>EXTERNAL, INTERNAL</t>
   </si>
   <si>
     <t>DOOR, GATE, TRAPDOOR, USERDEFINED, NOTDEFINED</t>
@@ -1178,10 +1167,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>44</v>
@@ -1190,7 +1179,7 @@
         <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>64</v>
@@ -1242,11 +1231,14 @@
       <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>65</v>
@@ -1299,13 +1291,13 @@
         <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>30</v>
@@ -1346,25 +1338,22 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>30</v>
@@ -1414,10 +1403,7 @@
         <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>30</v>
@@ -1470,16 +1456,16 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>30</v>
@@ -1532,16 +1518,19 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>30</v>
@@ -1603,7 +1592,7 @@
         <v>58</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>30</v>
@@ -2084,7 +2073,7 @@
         <v>73</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>74</v>
